--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3033942.459471899</v>
+        <v>3138122.093922971</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>97.9849709962363</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -710,16 +712,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>92.47445699814307</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -750,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657079</v>
       </c>
       <c r="H3" t="n">
         <v>89.59687541851115</v>
@@ -817,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>152.3650712933278</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>117.9651758720278</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>308.778986877569</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>56.22992883261756</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>149.3991884271814</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>23.13730849732379</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>359.9014886886321</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>278.2405979811791</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>14.57567088453384</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>194.6006862878647</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>99.97427419833681</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>66.2411842166464</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710077</v>
@@ -1613,16 +1615,16 @@
         <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695544</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
         <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
         <v>369.7311006784691</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819374</v>
+        <v>173.5740289795526</v>
       </c>
       <c r="C16" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>103.1686991936175</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695543</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576162</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892443</v>
+        <v>105.7906564314215</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>74.53917159608902</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="G22" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856568</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>78.91051008677961</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819374</v>
+        <v>178.6837743322708</v>
       </c>
       <c r="C25" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856568</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>60.11729550773547</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329573</v>
       </c>
       <c r="U28" t="n">
-        <v>141.5888089825039</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>70.04554881124375</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.3135037226517</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>41.55695577161151</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>58.21786903648938</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>134.0367616438392</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>108.3613954702483</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174122</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856569</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>100.58583229927</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>156.862409738047</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="44">
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>4.019807611472022</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>105.5373371683559</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3121.906610713899</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.445961844415</v>
+        <v>3054.126899536458</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5418494269122</v>
+        <v>2885.190716608551</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>2885.190716608551</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>2737.277623026158</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>2590.387675528248</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>2590.387675528248</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="Y4" t="n">
-        <v>700.0944266746548</v>
+        <v>3235.775364366698</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1887.813801820606</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1518.851284880194</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1518.851284880194</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1133.06303228195</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4583,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3062.830166081658</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2731.767278738087</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2731.767278738087</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2731.767278738087</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="6">
@@ -4635,28 +4637,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>769.9787346796178</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>769.9787346796178</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U7" t="n">
-        <v>769.9787346796178</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V7" t="n">
-        <v>515.2942464737309</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="W7" t="n">
-        <v>515.2942464737309</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="X7" t="n">
-        <v>287.3046955757135</v>
+        <v>384.6861761966524</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124869</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>2251.634947019675</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1882.672430079263</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1524.406731472513</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1138.618478874268</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>727.6325740846607</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066531</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2257.256030805451</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>2251.634947019675</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>639.3706644025392</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C10" t="n">
-        <v>639.3706644025392</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>639.3706644025392</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>639.3706644025392</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V10" t="n">
-        <v>639.3706644025392</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="W10" t="n">
-        <v>639.3706644025392</v>
+        <v>435.2177891581067</v>
       </c>
       <c r="X10" t="n">
-        <v>639.3706644025392</v>
+        <v>435.2177891581067</v>
       </c>
       <c r="Y10" t="n">
-        <v>639.3706644025392</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,28 +5029,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5057,34 +5059,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400702</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121631</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998273</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998273</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998273</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>194.8007783998273</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138403</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>849.3843576263199</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611464</v>
@@ -5264,46 +5266,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,19 +5366,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400697</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121627</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>240.7066105458824</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458824</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611857</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138398</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703096</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468472</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>2726.914133601551</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373307</v>
+        <v>3324.292621228103</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>3951.89058478271</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557283</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278213</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D19" t="n">
-        <v>408.9258559154854</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330922</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330922</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.409273127516</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229498</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859681</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468472</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517213</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2897.617548589223</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>2728.681365661316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>2728.681365661316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661316</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376196</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218394</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866308</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.01060699811</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729145</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389153</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098138</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671697</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398596</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650998</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305902</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4361.22502835966</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4072.149801703858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3817.465313497971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3528.048143461011</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3300.058592562993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3079.266013419463</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.53722908186</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153953</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741617</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159224</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>4227.652312159535</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>3972.967823953647</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>3972.967823953647</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X25" t="n">
-        <v>3744.97827305563</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y25" t="n">
-        <v>3524.185693912099</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6221,19 +6223,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6303,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>726.955532171245</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="C28" t="n">
-        <v>558.0193492433381</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>4267.507143868569</v>
       </c>
       <c r="U28" t="n">
-        <v>1901.48778528588</v>
+        <v>3978.431917212767</v>
       </c>
       <c r="V28" t="n">
-        <v>1646.803297079993</v>
+        <v>3723.74742900688</v>
       </c>
       <c r="W28" t="n">
-        <v>1357.386127043032</v>
+        <v>3434.33025896992</v>
       </c>
       <c r="X28" t="n">
-        <v>1129.396576145015</v>
+        <v>3434.33025896992</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.6039970014847</v>
+        <v>3213.53767982639</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616863</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>779.6143379232838</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>853.594109445026</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>703.4774700326902</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>555.5643764502971</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y31" t="n">
-        <v>779.6143379232838</v>
+        <v>1204.178757203173</v>
       </c>
     </row>
     <row r="32">
@@ -6680,46 +6682,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E34" t="n">
-        <v>444.7013164925216</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F34" t="n">
-        <v>444.7013164925216</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G34" t="n">
-        <v>277.5052172074016</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H34" t="n">
-        <v>135.7933860495997</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>4564.981520331309</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>4345.380055354251</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>4056.304828698449</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>3801.620340492562</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>3512.203170455601</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>3284.213619557584</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>3063.421040414054</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7022,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>1092.345997432835</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>923.4098145049279</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>773.2931750925922</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>625.380081510199</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>478.4901340122886</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>311.2940347271686</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="38">
@@ -7166,49 +7168,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>599.4453682035415</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>452.5554207056311</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>285.3593214205111</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="41">
@@ -7388,49 +7390,49 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168619</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7448,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>662.1522880254209</v>
+        <v>931.4710609784072</v>
       </c>
       <c r="C43" t="n">
-        <v>493.2161050975141</v>
+        <v>762.5348780505001</v>
       </c>
       <c r="D43" t="n">
-        <v>343.0994656851783</v>
+        <v>612.4182386381642</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>464.505145055771</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,7 +7587,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
@@ -7594,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2345.361232772917</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T43" t="n">
-        <v>2125.759767795858</v>
+        <v>2105.661370711884</v>
       </c>
       <c r="U43" t="n">
-        <v>1836.684541140056</v>
+        <v>1816.586144056082</v>
       </c>
       <c r="V43" t="n">
-        <v>1582.000052934169</v>
+        <v>1561.901655850195</v>
       </c>
       <c r="W43" t="n">
-        <v>1292.582882897208</v>
+        <v>1561.901655850195</v>
       </c>
       <c r="X43" t="n">
-        <v>1064.593331999191</v>
+        <v>1333.912104952177</v>
       </c>
       <c r="Y43" t="n">
-        <v>843.8007528556607</v>
+        <v>1113.119525808647</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>40.32043864788719</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856566</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>152.3434691354484</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>6.257951202384675</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>45.446773824595</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>180.3938179578226</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>211.9838267405021</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229314</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>138.4949402405088</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.148205849666454</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>226.0671788815088</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>45.71423459433092</v>
       </c>
       <c r="U28" t="n">
-        <v>144.5956654067402</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>75.3754992116875</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24889,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>83.27114962944304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>39.70888054695403</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>122.8084169651552</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>6.257951202384618</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>31.93331737597558</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S43" t="n">
-        <v>80.44045370237458</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>60.54304058924146</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>113.0473161837389</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>720891.9298890509</v>
+        <v>720891.9298890511</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>720891.929889051</v>
+        <v>720891.9298890511</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>720891.9298890511</v>
+        <v>720891.929889051</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>720891.929889051</v>
+        <v>720891.9298890511</v>
       </c>
     </row>
     <row r="14">
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312478</v>
-      </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287558</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287556</v>
@@ -26344,10 +26346,10 @@
         <v>706253.2747287552</v>
       </c>
       <c r="M2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287552</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287556</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687954</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687958</v>
+        <v>15436.6400068796</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687954</v>
+        <v>15436.6400068796</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
+        <v>15436.64000687958</v>
+      </c>
+      <c r="L4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.6400068797</v>
+        <v>15436.64000687961</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811863.8817617905</v>
+        <v>-811863.8817617903</v>
       </c>
       <c r="C6" t="n">
-        <v>516880.863965802</v>
+        <v>516880.8639658021</v>
       </c>
       <c r="D6" t="n">
-        <v>516880.8639658019</v>
+        <v>516880.8639658024</v>
       </c>
       <c r="E6" t="n">
-        <v>264281.6430906138</v>
+        <v>264281.6430906134</v>
       </c>
       <c r="F6" t="n">
-        <v>589694.1048979691</v>
+        <v>589694.1048979689</v>
       </c>
       <c r="G6" t="n">
         <v>589694.1048979692</v>
       </c>
       <c r="H6" t="n">
+        <v>589694.1048979687</v>
+      </c>
+      <c r="I6" t="n">
         <v>589694.1048979689</v>
-      </c>
-      <c r="I6" t="n">
-        <v>589694.1048979688</v>
       </c>
       <c r="J6" t="n">
         <v>372162.9025006911</v>
       </c>
       <c r="K6" t="n">
-        <v>589694.1048979688</v>
+        <v>589694.1048979689</v>
       </c>
       <c r="L6" t="n">
         <v>589694.1048979685</v>
       </c>
       <c r="M6" t="n">
-        <v>504639.0769624569</v>
+        <v>504639.0769624566</v>
       </c>
       <c r="N6" t="n">
-        <v>589694.1048979685</v>
+        <v>589694.1048979687</v>
       </c>
       <c r="O6" t="n">
+        <v>589694.1048979689</v>
+      </c>
+      <c r="P6" t="n">
         <v>589694.1048979688</v>
-      </c>
-      <c r="P6" t="n">
-        <v>589694.1048979687</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>284.7488706672443</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>256.7665117192699</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27537,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>14.88174980530007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>26.78983904229294</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>98.09705886414241</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>194.7652431262844</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>40.36983690426047</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>195.447344854771</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>51.02023696482138</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>107.9973406748745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>131.8582917620353</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>91.92231204872633</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28333,16 +28335,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-6.632190443471562e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-14</v>
       </c>
     </row>
     <row r="15">
@@ -29524,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.55482754568962e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31613,7 +31615,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31838,13 +31840,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31856,13 +31858,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>550.5977692975237</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460057</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>615.0381444378778</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>225.4828684302363</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>305.1876769472509</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>303.4297552732309</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720118997</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34457,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35261,7 +35263,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,13 +35506,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>416.6233618831934</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295323</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243189</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>472.9041105158595</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>82.88662398579186</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295323</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>167.3462379728919</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>160.8335108287864</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295323</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295323</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202556</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38105,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3138122.093922971</v>
+        <v>3134109.483908978</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97.9849709962363</v>
+        <v>145.9897563288623</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>117.9651758720278</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>271.2930916328065</v>
       </c>
       <c r="F5" t="n">
-        <v>308.778986877569</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>37.67709528776653</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>23.13730849732379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>188.8108690340841</v>
       </c>
       <c r="G8" t="n">
-        <v>359.9014886886321</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>194.6006862878647</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>150.672680124696</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.2411842166464</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>173.5740289795526</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>105.7906564314215</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>178.6837743322708</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>171.6912157329573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187885</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>70.04554881124375</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>97.54185816719593</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>58.21786903648938</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>134.0367616438392</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>108.3613954702483</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.294712846224</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856569</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>156.862409738047</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>105.5373371683559</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1582.86133602681</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.898819086399</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4327,22 +4327,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>2492.631839006149</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>2492.631839006149</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3054.126899536458</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>2885.190716608551</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>2885.190716608551</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>2737.277623026158</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>2590.387675528248</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>2590.387675528248</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>3235.775364366698</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1887.813801820606</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C5" t="n">
-        <v>1518.851284880194</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="D5" t="n">
-        <v>1518.851284880194</v>
+        <v>400.5199879482413</v>
       </c>
       <c r="E5" t="n">
-        <v>1133.06303228195</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4585,10 +4585,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796418</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1887.813801820606</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.3151575124869</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C7" t="n">
-        <v>361.3151575124869</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="T7" t="n">
-        <v>639.3706644025392</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="U7" t="n">
-        <v>639.3706644025392</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="V7" t="n">
-        <v>384.6861761966524</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="W7" t="n">
-        <v>384.6861761966524</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="X7" t="n">
-        <v>384.6861761966524</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="Y7" t="n">
-        <v>361.3151575124869</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2251.634947019675</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C8" t="n">
-        <v>1882.672430079263</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D8" t="n">
-        <v>1524.406731472513</v>
+        <v>654.050464674405</v>
       </c>
       <c r="E8" t="n">
-        <v>1138.618478874268</v>
+        <v>268.2622120761608</v>
       </c>
       <c r="F8" t="n">
-        <v>727.6325740846607</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995486</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.634947019675</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.4252100145765</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C10" t="n">
-        <v>214.4252100145765</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>199.3931395041724</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>435.2177891581067</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>435.2177891581067</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>214.4252100145765</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="11">
@@ -5035,22 +5035,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5068,7 +5068,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.867919098985</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.792692443183</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>849.3843576263199</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,22 +5296,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.776592304622</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385792</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385792</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2726.914133601551</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3324.292621228103</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3951.89058478271</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811332</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1870.601831589881</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5770,10 +5770,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>409.1360811687895</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6007,16 +6007,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6083,13 +6083,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6605733532801</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,22 +6220,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6247,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3031.88921499615</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3031.88921499615</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2881.772575583814</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4267.507143868569</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3978.431917212767</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3723.74742900688</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3434.33025896992</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3434.33025896992</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3213.53767982639</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616863</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6554,16 +6554,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1022.530292372933</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>853.594109445026</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>703.4774700326902</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>555.5643764502971</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2197.062545487568</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1942.378057281681</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1424.971336346703</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.178757203173</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2881.772575583814</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C34" t="n">
-        <v>2881.772575583814</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>2881.772575583814</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>2733.859482001421</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4564.981520331309</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4345.380055354251</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>4056.304828698449</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>3801.620340492562</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>3512.203170455601</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X34" t="n">
-        <v>3284.213619557584</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>3063.421040414054</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.345997432835</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>923.4098145049279</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>773.2931750925922</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>625.380081510199</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>478.4901340122886</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>311.2940347271686</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1722.776592304622</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1494.787041406604</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1273.994462263074</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,58 +7165,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7265,16 +7265,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.2946447138415</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3584617859347</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>747.3584617859347</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>599.4453682035415</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>452.5554207056311</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>285.3593214205111</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138415</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784072</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780505001</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381642</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>464.505145055771</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578605</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578605</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7587,34 +7587,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2105.661370711884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1816.586144056082</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1561.901655850195</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.901655850195</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1333.912104952177</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808647</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>66.73277020259229</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>152.3434691354484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.257951202384675</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>180.3938179578226</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>143.6212754172146</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.148205849666454</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>45.71423459433092</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>75.3754992116875</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>69.70496293143191</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>122.8084169651552</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>6.257951202384618</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>31.93331737597558</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012183</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>60.54304058924146</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>113.0473161837389</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>720891.9298890511</v>
+        <v>720891.929889051</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>720891.9298890511</v>
+        <v>720891.929889051</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>720891.9298890511</v>
+        <v>720891.929889051</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>720891.929889051</v>
+        <v>720891.9298890511</v>
       </c>
     </row>
     <row r="15">
@@ -26325,37 +26325,37 @@
         <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="G2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287558</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="I2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.6400068797</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.6400068796</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.6400068796</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
@@ -26444,7 +26444,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687958</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
@@ -26456,7 +26456,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687961</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811863.8817617903</v>
+        <v>-811863.88176179</v>
       </c>
       <c r="C6" t="n">
-        <v>516880.8639658021</v>
+        <v>516880.8639658019</v>
       </c>
       <c r="D6" t="n">
         <v>516880.8639658024</v>
       </c>
       <c r="E6" t="n">
-        <v>264281.6430906134</v>
+        <v>263934.2638362568</v>
       </c>
       <c r="F6" t="n">
-        <v>589694.1048979689</v>
+        <v>589346.7256436119</v>
       </c>
       <c r="G6" t="n">
-        <v>589694.1048979692</v>
+        <v>589346.7256436116</v>
       </c>
       <c r="H6" t="n">
-        <v>589694.1048979687</v>
+        <v>589346.7256436121</v>
       </c>
       <c r="I6" t="n">
-        <v>589694.1048979689</v>
+        <v>589346.7256436115</v>
       </c>
       <c r="J6" t="n">
-        <v>372162.9025006911</v>
+        <v>371815.5232463345</v>
       </c>
       <c r="K6" t="n">
-        <v>589694.1048979689</v>
+        <v>589346.7256436119</v>
       </c>
       <c r="L6" t="n">
-        <v>589694.1048979685</v>
+        <v>589346.7256436117</v>
       </c>
       <c r="M6" t="n">
-        <v>504639.0769624566</v>
+        <v>504291.6977081</v>
       </c>
       <c r="N6" t="n">
-        <v>589694.1048979687</v>
+        <v>589346.7256436116</v>
       </c>
       <c r="O6" t="n">
-        <v>589694.1048979689</v>
+        <v>589346.7256436119</v>
       </c>
       <c r="P6" t="n">
-        <v>589694.1048979688</v>
+        <v>589346.7256436119</v>
       </c>
     </row>
   </sheetData>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>284.7488706672443</v>
+        <v>236.7440853346183</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>26.78983904229294</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>110.6372784394553</v>
       </c>
       <c r="F5" t="n">
-        <v>98.09705886414241</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>51.2550573822808</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>195.447344854771</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>218.0651767076273</v>
       </c>
       <c r="G8" t="n">
-        <v>51.02023696482138</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>14.8817498053001</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>91.92231204872633</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28335,16 +28335,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.632190443471562e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.55482754568962e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31612,10 +31612,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>550.5977692975237</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>575.5951359912044</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>225.4828684302363</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>305.1876769472509</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>196.3041720118997</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>332.1692388321073</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>416.6233618831934</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>433.4611020691861</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>82.88662398579186</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>167.3462379728919</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>57.74979223202556</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>189.5729943876629</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295325</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3134109.483908978</v>
+        <v>3135870.014211763</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8328603.389020026</v>
+        <v>8328603.389020028</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>145.9897563288623</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292598</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>36.34690181271963</v>
       </c>
     </row>
     <row r="3">
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>271.2930916328065</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>109.6870817625068</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>37.67709528776653</v>
+        <v>37.67709528776619</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>188.8108690340841</v>
+        <v>297.9986308222593</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>131.5522128412691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386283</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856555</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>150.672680124696</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1773,13 +1773,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833816</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>99.97427419833816</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>260.4394343112825</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>97.54185816719593</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>137.5999985461714</v>
       </c>
     </row>
     <row r="41">
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2866.097597267229</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2492.631839006149</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2492.631839006149</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="3">
@@ -4403,10 +4403,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4476,22 +4476,22 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596504</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495403</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>758.7856865549918</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>400.5199879482413</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>126.4865620565176</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559525</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,22 +4664,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4707,46 +4707,46 @@
         <v>532.2446860521933</v>
       </c>
       <c r="D7" t="n">
-        <v>382.1280466398576</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
         <v>882.8293338103399</v>
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221567</v>
+        <v>1491.569348694471</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281155</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D8" t="n">
-        <v>654.050464674405</v>
+        <v>764.3411331473092</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761608</v>
+        <v>378.5528805490649</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>77.54416254678284</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285689</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4898,7 +4898,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.445961844415</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>349.5097789165081</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>199.3931395041724</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.0944266746548</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5071,22 +5071,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.867919098985</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.792692443183</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1501.108204237296</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5278,13 +5278,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5305,7 +5305,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797186</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="17">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
         <v>402.7245934908938</v>
@@ -5746,34 +5746,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192559</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5904,10 +5904,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5983,19 +5983,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6007,16 +6007,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797186</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="26">
@@ -6223,22 +6223,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
         <v>402.7245934908939</v>
@@ -6378,10 +6378,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7128,10 +7128,10 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
         <v>1202.091371290588</v>
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7608,13 +7608,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7785,22 +7785,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>66.73277020259229</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844823101</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
         <v>57.22910392194223</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>46.45968844823101</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>25.74504007796162</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>69.70496293143191</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>80.98465480592338</v>
       </c>
     </row>
     <row r="41">
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>720891.929889051</v>
+        <v>720891.9298890511</v>
       </c>
     </row>
     <row r="6">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="F2" t="n">
-        <v>706253.2747287556</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="M2" t="n">
-        <v>706253.2747287556</v>
-      </c>
       <c r="N2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287556</v>
@@ -26368,13 +26368,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405262</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.6400068797</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687973</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
@@ -26524,46 +26524,46 @@
         <v>-811863.88176179</v>
       </c>
       <c r="C6" t="n">
-        <v>516880.8639658019</v>
+        <v>516880.8639658021</v>
       </c>
       <c r="D6" t="n">
-        <v>516880.8639658024</v>
+        <v>516880.8639658026</v>
       </c>
       <c r="E6" t="n">
-        <v>263934.2638362568</v>
+        <v>264246.9051651775</v>
       </c>
       <c r="F6" t="n">
-        <v>589346.7256436119</v>
+        <v>589659.3669725331</v>
       </c>
       <c r="G6" t="n">
-        <v>589346.7256436116</v>
+        <v>589659.3669725329</v>
       </c>
       <c r="H6" t="n">
-        <v>589346.7256436121</v>
+        <v>589659.3669725332</v>
       </c>
       <c r="I6" t="n">
-        <v>589346.7256436115</v>
+        <v>589659.3669725329</v>
       </c>
       <c r="J6" t="n">
-        <v>371815.5232463345</v>
+        <v>372128.1645752557</v>
       </c>
       <c r="K6" t="n">
-        <v>589346.7256436119</v>
+        <v>589659.3669725332</v>
       </c>
       <c r="L6" t="n">
-        <v>589346.7256436117</v>
+        <v>589659.3669725332</v>
       </c>
       <c r="M6" t="n">
-        <v>504291.6977081</v>
+        <v>504604.339037021</v>
       </c>
       <c r="N6" t="n">
-        <v>589346.7256436116</v>
+        <v>589659.3669725331</v>
       </c>
       <c r="O6" t="n">
-        <v>589346.7256436119</v>
+        <v>589659.3669725333</v>
       </c>
       <c r="P6" t="n">
-        <v>589346.7256436119</v>
+        <v>589659.3669725332</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236.7440853346183</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>349.8910368433339</v>
       </c>
     </row>
     <row r="3">
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>110.6372784394553</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>218.0651767076282</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>51.2550573822808</v>
+        <v>51.25505738228115</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>218.0651767076273</v>
+        <v>108.8774149194522</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>14.8817498053001</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>160.302797828232</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970261</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525818</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
